--- a/data/globalTables/productCastList.xlsx
+++ b/data/globalTables/productCastList.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="28">
   <si>
     <t>machineID</t>
   </si>
@@ -24,18 +24,12 @@
     <t>dispatchCode</t>
   </si>
   <si>
-    <t>salesOrderCode</t>
-  </si>
-  <si>
     <t>设备编号</t>
   </si>
   <si>
     <t>工单编号</t>
   </si>
   <si>
-    <t>订单编号</t>
-  </si>
-  <si>
     <t>批次号</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -116,35 +110,19 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>操作员工</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>workerID</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>0109</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>largeIndex</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>产品编码</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>productCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>S171109</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>CPE8111</t>
+    <t>重量</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>125</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -531,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="A1:I13"/>
+      <selection activeCell="G4" sqref="G4:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -543,386 +521,306 @@
     <col min="2" max="2" width="28.75" customWidth="1"/>
     <col min="3" max="3" width="16.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.625" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>5</v>
-      </c>
       <c r="F1" s="3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="3">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F4" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="3">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="3">
+        <v>8</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="3">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F7" s="3">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F8" s="3">
+        <v>6</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F9" s="3">
         <v>7</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="3">
-        <v>8</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G3" s="3">
-        <v>1</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="3">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="3">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G5" s="3">
-        <v>3</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="3">
-        <v>8</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G6" s="3">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="3">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="G9" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="3">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G8" s="3">
-        <v>6</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="C10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F10" s="3">
+        <v>8</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="3">
+        <v>8</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G9" s="3">
-        <v>7</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F11" s="3">
+        <v>9</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="3">
+        <v>8</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G10" s="3">
-        <v>8</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="3">
-        <v>8</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="C12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1801306</v>
+      </c>
+      <c r="F12" s="3">
+        <v>10</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G11" s="3">
-        <v>9</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="3">
-        <v>8</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F12" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="3">
-        <v>8</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>32</v>
+        <v>10</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1801306</v>
       </c>
       <c r="F13" s="3">
-        <v>1801306</v>
-      </c>
-      <c r="G13" s="3">
         <v>11</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>33</v>
+      <c r="G13" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/data/globalTables/productCastList.xlsx
+++ b/data/globalTables/productCastList.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MESSystem_180506\MESSystem\data\globalTables\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="5520"/>
+    <workbookView xWindow="1290" yWindow="105" windowWidth="14355" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -222,8 +227,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -231,12 +236,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -278,7 +286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -313,7 +321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -522,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H2"/>
+      <selection activeCell="I1" sqref="I1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -537,7 +545,7 @@
     <col min="6" max="6" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -562,12 +570,8 @@
       <c r="H1" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -593,7 +597,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>8</v>
       </c>
@@ -619,7 +623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="3">
         <v>8</v>
       </c>
@@ -645,7 +649,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="3">
         <v>8</v>
       </c>
@@ -671,7 +675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="3">
         <v>8</v>
       </c>
@@ -697,7 +701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" s="3">
         <v>8</v>
       </c>
@@ -723,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" s="3">
         <v>8</v>
       </c>
@@ -749,7 +753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -775,7 +779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -801,7 +805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A11" s="3">
         <v>8</v>
       </c>
@@ -827,7 +831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -853,7 +857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="3">
         <v>8</v>
       </c>

--- a/data/globalTables/productCastList.xlsx
+++ b/data/globalTables/productCastList.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\MESSystem_180506\MESSystem\data\globalTables\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1290" yWindow="105" windowWidth="14355" windowHeight="5520"/>
+    <workbookView xWindow="360" yWindow="105" windowWidth="14355" windowHeight="5520"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -227,8 +222,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -236,15 +231,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -286,7 +278,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -321,7 +313,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -533,7 +525,7 @@
   <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:J1048576"/>
+      <selection activeCell="I1" sqref="I1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
